--- a/CardList.xlsx
+++ b/CardList.xlsx
@@ -8136,7 +8136,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -8163,7 +8162,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ᆺ╹</t>
     </r>
@@ -8181,7 +8179,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ぬんぬん</t>
     </r>
@@ -8199,7 +8196,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8217,7 +8213,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8312,7 +8307,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -8348,7 +8342,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8366,7 +8359,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8418,7 +8410,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -8458,7 +8449,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8478,7 +8468,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8531,7 +8520,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -8567,7 +8555,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8585,7 +8572,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8621,7 +8607,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -8639,7 +8624,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8675,7 +8659,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8693,7 +8676,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8746,7 +8728,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -8800,7 +8781,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8818,7 +8798,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8872,7 +8851,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -8890,7 +8868,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8935,7 +8912,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -8953,7 +8929,6 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9008,7 +8983,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9068,7 +9042,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9088,7 +9061,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9165,7 +9137,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9225,7 +9196,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9245,7 +9215,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9300,7 +9269,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9360,7 +9328,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9380,7 +9347,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9438,7 +9404,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -9478,7 +9443,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9498,7 +9462,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9553,7 +9516,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -9613,7 +9575,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9633,7 +9594,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9741,7 +9701,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9761,7 +9720,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9801,7 +9759,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -9861,7 +9818,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9881,7 +9837,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9976,7 +9931,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -9996,7 +9950,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -10109,7 +10062,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -10149,7 +10101,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -10169,7 +10120,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -10233,7 +10183,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -10253,7 +10202,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -10293,7 +10241,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -10313,7 +10260,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -10413,7 +10359,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">無色</t>
     </r>
@@ -10453,7 +10398,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -10473,7 +10417,6 @@
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白</t>
     </r>
@@ -12259,7 +12202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12284,9 +12227,15 @@
     </font>
     <font>
       <sz val="9.5"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cascadia Mono"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12305,7 +12254,6 @@
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -12315,10 +12263,22 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -12339,18 +12299,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12395,7 +12343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12417,26 +12365,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12634,7 +12578,7 @@
   </sheetPr>
   <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L136" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K139" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q180" activeCellId="0" sqref="Q180"/>
     </sheetView>
   </sheetViews>
@@ -12653,9 +12597,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="43.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="60.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12707,27 +12649,27 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -12744,22 +12686,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -12776,22 +12718,22 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -12808,22 +12750,22 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -12840,22 +12782,22 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -12872,22 +12814,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -12904,28 +12846,28 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -12936,28 +12878,28 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -12968,28 +12910,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -13000,28 +12942,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -13032,28 +12974,28 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -13064,28 +13006,28 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -13096,28 +13038,28 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -13128,28 +13070,28 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -13160,28 +13102,28 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -13192,28 +13134,28 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -13224,28 +13166,28 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -13256,28 +13198,28 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -13288,19 +13230,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="1" t="n">
@@ -13309,7 +13251,7 @@
       <c r="G20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -13317,10 +13259,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -13329,7 +13271,7 @@
       <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="1" t="n">
@@ -13338,7 +13280,7 @@
       <c r="G21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -13346,19 +13288,19 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="1" t="n">
@@ -13367,10 +13309,10 @@
       <c r="G22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -13378,19 +13320,19 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="1" t="n">
@@ -13399,10 +13341,10 @@
       <c r="G23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="5" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -13410,19 +13352,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="1" t="n">
@@ -13431,7 +13373,7 @@
       <c r="G24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>78</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -13439,19 +13381,19 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="1" t="n">
@@ -13460,10 +13402,10 @@
       <c r="G25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -13471,19 +13413,19 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="1" t="n">
@@ -13492,10 +13434,10 @@
       <c r="G26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -13503,19 +13445,19 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="1" t="n">
@@ -13524,10 +13466,10 @@
       <c r="G27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -13535,19 +13477,19 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="1" t="n">
@@ -13556,7 +13498,7 @@
       <c r="G28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -13564,10 +13506,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -13576,7 +13518,7 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="1" t="n">
@@ -13585,7 +13527,7 @@
       <c r="G29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -13593,19 +13535,19 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="1" t="n">
@@ -13614,7 +13556,7 @@
       <c r="G30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>91</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -13622,19 +13564,19 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="1" t="n">
@@ -13643,7 +13585,7 @@
       <c r="G31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -13654,19 +13596,19 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="1" t="n">
@@ -13675,10 +13617,10 @@
       <c r="G32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="5" t="s">
         <v>97</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -13686,19 +13628,19 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="1" t="n">
@@ -13707,7 +13649,7 @@
       <c r="G33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="5" t="s">
         <v>99</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -13715,19 +13657,19 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="1" t="n">
@@ -13736,10 +13678,10 @@
       <c r="G34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -13747,19 +13689,19 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="1" t="n">
@@ -13768,7 +13710,7 @@
       <c r="G35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -13776,10 +13718,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -13788,7 +13730,7 @@
       <c r="D36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="1" t="n">
@@ -13797,7 +13739,7 @@
       <c r="G36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>105</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -13805,19 +13747,19 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="1" t="n">
@@ -13826,7 +13768,7 @@
       <c r="G37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>107</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -13834,19 +13776,19 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="1" t="n">
@@ -13855,10 +13797,10 @@
       <c r="G38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -13866,19 +13808,19 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="1" t="n">
@@ -13887,10 +13829,10 @@
       <c r="G39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -13898,19 +13840,19 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="1" t="n">
@@ -13919,7 +13861,7 @@
       <c r="G40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="5" t="s">
         <v>112</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -13927,10 +13869,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -13939,7 +13881,7 @@
       <c r="D41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="1" t="n">
@@ -13948,7 +13890,7 @@
       <c r="G41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>112</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -13956,19 +13898,19 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="1" t="n">
@@ -13977,10 +13919,10 @@
       <c r="G42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -13988,19 +13930,19 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="1" t="n">
@@ -14009,7 +13951,7 @@
       <c r="G43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -14017,7 +13959,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -14026,10 +13968,10 @@
       <c r="C44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="1" t="n">
@@ -14038,10 +13980,10 @@
       <c r="G44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="5" t="s">
         <v>121</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -14049,7 +13991,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -14058,10 +14000,10 @@
       <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="1" t="n">
@@ -14070,10 +14012,10 @@
       <c r="G45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="5" t="s">
         <v>121</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -14084,16 +14026,16 @@
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="1" t="n">
@@ -14102,7 +14044,7 @@
       <c r="G46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="5" t="s">
         <v>124</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -14113,16 +14055,16 @@
       <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="1" t="n">
@@ -14131,10 +14073,10 @@
       <c r="G47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="5" t="s">
         <v>127</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -14145,16 +14087,16 @@
       <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="n">
@@ -14163,7 +14105,7 @@
       <c r="G48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="5" t="s">
         <v>129</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -14174,16 +14116,16 @@
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="1" t="n">
@@ -14192,7 +14134,7 @@
       <c r="G49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="5" t="s">
         <v>131</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -14203,19 +14145,19 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F50" s="1" t="n">
@@ -14224,7 +14166,7 @@
       <c r="G50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="5" t="s">
         <v>134</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -14232,10 +14174,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -14244,7 +14186,7 @@
       <c r="D51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F51" s="1" t="n">
@@ -14253,7 +14195,7 @@
       <c r="G51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="5" t="s">
         <v>134</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -14261,19 +14203,19 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="1" t="n">
@@ -14282,10 +14224,10 @@
       <c r="G52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="5" t="s">
         <v>137</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -14293,19 +14235,19 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F53" s="1" t="n">
@@ -14314,10 +14256,10 @@
       <c r="G53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="5" t="s">
         <v>140</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -14325,19 +14267,19 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="1" t="n">
@@ -14346,10 +14288,10 @@
       <c r="G54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="5" t="s">
         <v>143</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -14357,19 +14299,19 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F55" s="1" t="n">
@@ -14378,7 +14320,7 @@
       <c r="G55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="5" t="s">
         <v>145</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -14386,19 +14328,19 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F56" s="1" t="n">
@@ -14407,10 +14349,10 @@
       <c r="G56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="5" t="s">
         <v>148</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -14418,19 +14360,19 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="1" t="n">
@@ -14439,7 +14381,7 @@
       <c r="G57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="5" t="s">
         <v>150</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -14447,10 +14389,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -14459,7 +14401,7 @@
       <c r="D58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F58" s="1" t="n">
@@ -14468,7 +14410,7 @@
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="5" t="s">
         <v>150</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -14476,19 +14418,19 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F59" s="1" t="n">
@@ -14497,10 +14439,10 @@
       <c r="G59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="L59" s="5" t="s">
         <v>153</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -14508,19 +14450,19 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F60" s="1" t="n">
@@ -14529,10 +14471,10 @@
       <c r="G60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="L60" s="5" t="s">
         <v>153</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -14540,19 +14482,19 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F61" s="1" t="n">
@@ -14561,7 +14503,7 @@
       <c r="G61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="5" t="s">
         <v>157</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -14569,19 +14511,19 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F62" s="1" t="n">
@@ -14590,10 +14532,10 @@
       <c r="G62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="L62" s="5" t="s">
         <v>153</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -14601,19 +14543,19 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F63" s="1" t="n">
@@ -14622,10 +14564,10 @@
       <c r="G63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L63" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -14633,19 +14575,19 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F64" s="1" t="n">
@@ -14654,10 +14596,10 @@
       <c r="G64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -14668,16 +14610,16 @@
       <c r="A65" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F65" s="1" t="n">
@@ -14686,7 +14628,7 @@
       <c r="G65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="5" t="s">
         <v>164</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -14697,7 +14639,7 @@
       <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -14706,7 +14648,7 @@
       <c r="D66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F66" s="1" t="n">
@@ -14715,7 +14657,7 @@
       <c r="G66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="5" t="s">
         <v>164</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -14726,16 +14668,16 @@
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F67" s="1" t="n">
@@ -14744,10 +14686,10 @@
       <c r="G67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="5" t="s">
         <v>167</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -14758,16 +14700,16 @@
       <c r="A68" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F68" s="1" t="n">
@@ -14776,7 +14718,7 @@
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="5" t="s">
         <v>169</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -14787,16 +14729,16 @@
       <c r="A69" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F69" s="1" t="n">
@@ -14805,10 +14747,10 @@
       <c r="G69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="5" t="s">
         <v>172</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -14819,16 +14761,16 @@
       <c r="A70" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F70" s="1" t="n">
@@ -14837,7 +14779,7 @@
       <c r="G70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="5" t="s">
         <v>171</v>
       </c>
       <c r="L70" s="1" t="s">
@@ -14848,19 +14790,19 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F71" s="1" t="n">
@@ -14869,7 +14811,7 @@
       <c r="G71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="5" t="s">
         <v>176</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -14877,10 +14819,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -14889,7 +14831,7 @@
       <c r="D72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F72" s="1" t="n">
@@ -14898,7 +14840,7 @@
       <c r="G72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="5" t="s">
         <v>176</v>
       </c>
       <c r="M72" s="1" t="s">
@@ -14906,19 +14848,19 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F73" s="1" t="n">
@@ -14927,10 +14869,10 @@
       <c r="G73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="L73" s="5" t="s">
         <v>179</v>
       </c>
       <c r="M73" s="1" t="s">
@@ -14938,19 +14880,19 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F74" s="1" t="n">
@@ -14959,7 +14901,7 @@
       <c r="G74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="5" t="s">
         <v>181</v>
       </c>
       <c r="M74" s="1" t="s">
@@ -14967,7 +14909,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -14976,10 +14918,10 @@
       <c r="C75" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F75" s="1" t="n">
@@ -14988,10 +14930,10 @@
       <c r="G75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="L75" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -14999,7 +14941,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -15008,10 +14950,10 @@
       <c r="C76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F76" s="1" t="n">
@@ -15020,10 +14962,10 @@
       <c r="G76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="L76" s="5" t="s">
         <v>186</v>
       </c>
       <c r="M76" s="1" t="s">
@@ -15031,19 +14973,19 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F77" s="1" t="n">
@@ -15052,7 +14994,7 @@
       <c r="G77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="5" t="s">
         <v>188</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -15060,19 +15002,19 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F78" s="1" t="n">
@@ -15081,10 +15023,10 @@
       <c r="G78" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="5" t="s">
         <v>191</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -15092,19 +15034,19 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F79" s="1" t="n">
@@ -15113,7 +15055,7 @@
       <c r="G79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="5" t="s">
         <v>193</v>
       </c>
       <c r="M79" s="1" t="s">
@@ -15121,19 +15063,19 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F80" s="1" t="n">
@@ -15142,10 +15084,10 @@
       <c r="G80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="5" t="s">
         <v>102</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -15153,19 +15095,19 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F81" s="1" t="n">
@@ -15174,7 +15116,7 @@
       <c r="G81" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="5" t="s">
         <v>197</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -15182,10 +15124,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -15194,7 +15136,7 @@
       <c r="D82" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F82" s="1" t="n">
@@ -15203,7 +15145,7 @@
       <c r="G82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="5" t="s">
         <v>197</v>
       </c>
       <c r="M82" s="1" t="s">
@@ -15211,19 +15153,19 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F83" s="1" t="n">
@@ -15232,7 +15174,7 @@
       <c r="G83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="5" t="s">
         <v>199</v>
       </c>
       <c r="L83" s="1" t="s">
@@ -15243,19 +15185,19 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F84" s="1" t="n">
@@ -15264,7 +15206,7 @@
       <c r="G84" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="5" t="s">
         <v>202</v>
       </c>
       <c r="L84" s="1" t="s">
@@ -15275,19 +15217,19 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F85" s="1" t="n">
@@ -15296,10 +15238,10 @@
       <c r="G85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="L85" s="5" t="s">
         <v>206</v>
       </c>
       <c r="M85" s="1" t="s">
@@ -15307,19 +15249,19 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F86" s="1" t="n">
@@ -15328,7 +15270,7 @@
       <c r="G86" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="5" t="s">
         <v>208</v>
       </c>
       <c r="M86" s="1" t="s">
@@ -15336,19 +15278,19 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F87" s="1" t="n">
@@ -15357,10 +15299,10 @@
       <c r="G87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M87" s="1" t="s">
@@ -15368,19 +15310,19 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F88" s="1" t="n">
@@ -15389,7 +15331,7 @@
       <c r="G88" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="5" t="s">
         <v>212</v>
       </c>
       <c r="M88" s="1" t="s">
@@ -15397,10 +15339,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -15409,7 +15351,7 @@
       <c r="D89" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F89" s="1" t="n">
@@ -15418,7 +15360,7 @@
       <c r="G89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="5" t="s">
         <v>212</v>
       </c>
       <c r="M89" s="1" t="s">
@@ -15426,19 +15368,19 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F90" s="1" t="n">
@@ -15447,7 +15389,7 @@
       <c r="G90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="5" t="s">
         <v>214</v>
       </c>
       <c r="L90" s="1" t="s">
@@ -15458,19 +15400,19 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F91" s="1" t="n">
@@ -15479,10 +15421,10 @@
       <c r="G91" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="L91" s="5" t="s">
         <v>218</v>
       </c>
       <c r="M91" s="1" t="s">
@@ -15490,19 +15432,19 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F92" s="1" t="n">
@@ -15511,7 +15453,7 @@
       <c r="G92" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="5" t="s">
         <v>220</v>
       </c>
       <c r="M92" s="1" t="s">
@@ -15519,19 +15461,19 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F93" s="1" t="n">
@@ -15540,10 +15482,10 @@
       <c r="G93" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M93" s="1" t="s">
@@ -15551,19 +15493,19 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F94" s="1" t="n">
@@ -15572,10 +15514,10 @@
       <c r="G94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="L94" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M94" s="1" t="s">
@@ -15583,19 +15525,19 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F95" s="1" t="n">
@@ -15604,10 +15546,10 @@
       <c r="G95" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="H95" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="L95" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M95" s="1" t="s">
@@ -15615,19 +15557,19 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F96" s="1" t="n">
@@ -15636,7 +15578,7 @@
       <c r="G96" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="5" t="s">
         <v>227</v>
       </c>
       <c r="M96" s="1" t="s">
@@ -15644,10 +15586,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -15656,7 +15598,7 @@
       <c r="D97" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F97" s="1" t="n">
@@ -15665,7 +15607,7 @@
       <c r="G97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" s="5" t="s">
         <v>227</v>
       </c>
       <c r="M97" s="1" t="s">
@@ -15673,19 +15615,19 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F98" s="1" t="n">
@@ -15694,10 +15636,10 @@
       <c r="G98" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="L98" s="4" t="s">
+      <c r="L98" s="5" t="s">
         <v>218</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -15705,19 +15647,19 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="1" t="n">
@@ -15726,7 +15668,7 @@
       <c r="G99" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="5" t="s">
         <v>231</v>
       </c>
       <c r="M99" s="1" t="s">
@@ -15734,7 +15676,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -15743,10 +15685,10 @@
       <c r="C100" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F100" s="1" t="n">
@@ -15755,10 +15697,10 @@
       <c r="G100" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="L100" s="4" t="s">
+      <c r="L100" s="5" t="s">
         <v>234</v>
       </c>
       <c r="M100" s="1" t="s">
@@ -15766,7 +15708,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -15775,10 +15717,10 @@
       <c r="C101" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="1" t="n">
@@ -15787,10 +15729,10 @@
       <c r="G101" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="L101" s="4" t="s">
+      <c r="L101" s="5" t="s">
         <v>236</v>
       </c>
       <c r="M101" s="1" t="s">
@@ -15798,19 +15740,19 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F102" s="1" t="n">
@@ -15819,7 +15761,7 @@
       <c r="G102" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M102" s="1" t="s">
@@ -15827,10 +15769,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -15839,7 +15781,7 @@
       <c r="D103" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="1" t="n">
@@ -15848,7 +15790,7 @@
       <c r="G103" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H103" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M103" s="1" t="s">
@@ -15856,19 +15798,19 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F104" s="1" t="n">
@@ -15877,10 +15819,10 @@
       <c r="G104" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="L104" s="4" t="s">
+      <c r="L104" s="5" t="s">
         <v>241</v>
       </c>
       <c r="M104" s="1" t="s">
@@ -15888,19 +15830,19 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F105" s="1" t="n">
@@ -15909,7 +15851,7 @@
       <c r="G105" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H105" s="5" t="s">
         <v>243</v>
       </c>
       <c r="M105" s="1" t="s">
@@ -15917,19 +15859,19 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F106" s="1" t="n">
@@ -15938,7 +15880,7 @@
       <c r="G106" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" s="5" t="s">
         <v>245</v>
       </c>
       <c r="L106" s="1" t="s">
@@ -15949,19 +15891,19 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="1" t="n">
@@ -15970,7 +15912,7 @@
       <c r="G107" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H107" s="5" t="s">
         <v>248</v>
       </c>
       <c r="M107" s="1" t="s">
@@ -15978,10 +15920,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -15990,7 +15932,7 @@
       <c r="D108" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F108" s="1" t="n">
@@ -15999,7 +15941,7 @@
       <c r="G108" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="5" t="s">
         <v>248</v>
       </c>
       <c r="M108" s="1" t="s">
@@ -16007,19 +15949,19 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F109" s="1" t="n">
@@ -16028,10 +15970,10 @@
       <c r="G109" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H109" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L109" s="4" t="s">
+      <c r="L109" s="5" t="s">
         <v>251</v>
       </c>
       <c r="M109" s="1" t="s">
@@ -16039,19 +15981,19 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="1" t="n">
@@ -16060,10 +16002,10 @@
       <c r="G110" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="L110" s="4" t="s">
+      <c r="L110" s="5" t="s">
         <v>254</v>
       </c>
       <c r="M110" s="1" t="s">
@@ -16071,19 +16013,19 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F111" s="1" t="n">
@@ -16092,7 +16034,7 @@
       <c r="G111" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H111" s="5" t="s">
         <v>256</v>
       </c>
       <c r="M111" s="1" t="s">
@@ -16100,19 +16042,19 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F112" s="1" t="n">
@@ -16121,10 +16063,10 @@
       <c r="G112" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="H112" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="L112" s="4" t="s">
+      <c r="L112" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M112" s="1" t="s">
@@ -16132,19 +16074,19 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F113" s="1" t="n">
@@ -16153,10 +16095,10 @@
       <c r="G113" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H113" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="L113" s="4" t="s">
+      <c r="L113" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M113" s="1" t="s">
@@ -16164,19 +16106,19 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F114" s="1" t="n">
@@ -16185,7 +16127,7 @@
       <c r="G114" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" s="5" t="s">
         <v>260</v>
       </c>
       <c r="M114" s="1" t="s">
@@ -16193,19 +16135,19 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F115" s="1" t="n">
@@ -16214,7 +16156,7 @@
       <c r="G115" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="H115" s="5" t="s">
         <v>262</v>
       </c>
       <c r="M115" s="1" t="s">
@@ -16222,10 +16164,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -16234,7 +16176,7 @@
       <c r="D116" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F116" s="1" t="n">
@@ -16243,7 +16185,7 @@
       <c r="G116" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H116" s="5" t="s">
         <v>262</v>
       </c>
       <c r="M116" s="1" t="s">
@@ -16251,19 +16193,19 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F117" s="1" t="n">
@@ -16272,10 +16214,10 @@
       <c r="G117" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H117" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="L117" s="4" t="s">
+      <c r="L117" s="5" t="s">
         <v>265</v>
       </c>
       <c r="M117" s="1" t="s">
@@ -16283,19 +16225,19 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F118" s="1" t="n">
@@ -16304,10 +16246,10 @@
       <c r="G118" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H118" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="L118" s="4" t="s">
+      <c r="L118" s="5" t="s">
         <v>268</v>
       </c>
       <c r="M118" s="1" t="s">
@@ -16315,19 +16257,19 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F119" s="1" t="n">
@@ -16336,7 +16278,7 @@
       <c r="G119" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="5" t="s">
         <v>270</v>
       </c>
       <c r="L119" s="1" t="s">
@@ -16347,19 +16289,19 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F120" s="1" t="n">
@@ -16368,7 +16310,7 @@
       <c r="G120" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H120" s="5" t="s">
         <v>273</v>
       </c>
       <c r="M120" s="1" t="s">
@@ -16376,19 +16318,19 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F121" s="1" t="n">
@@ -16397,10 +16339,10 @@
       <c r="G121" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="H121" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="L121" s="5" t="s">
         <v>102</v>
       </c>
       <c r="M121" s="1" t="s">
@@ -16408,19 +16350,19 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F122" s="1" t="n">
@@ -16429,7 +16371,7 @@
       <c r="G122" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H122" s="5" t="s">
         <v>278</v>
       </c>
       <c r="M122" s="1" t="s">
@@ -16437,10 +16379,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -16449,7 +16391,7 @@
       <c r="D123" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F123" s="1" t="n">
@@ -16458,7 +16400,7 @@
       <c r="G123" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H123" s="5" t="s">
         <v>278</v>
       </c>
       <c r="M123" s="1" t="s">
@@ -16466,19 +16408,19 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F124" s="1" t="n">
@@ -16487,10 +16429,10 @@
       <c r="G124" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H124" s="4" t="s">
+      <c r="H124" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L124" s="4" t="s">
+      <c r="L124" s="5" t="s">
         <v>281</v>
       </c>
       <c r="M124" s="1" t="s">
@@ -16498,19 +16440,19 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F125" s="1" t="n">
@@ -16519,7 +16461,7 @@
       <c r="G125" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="5" t="s">
         <v>283</v>
       </c>
       <c r="M125" s="1" t="s">
@@ -16527,7 +16469,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -16536,10 +16478,10 @@
       <c r="C126" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F126" s="1" t="n">
@@ -16548,10 +16490,10 @@
       <c r="G126" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H126" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L126" s="4" t="s">
+      <c r="L126" s="5" t="s">
         <v>102</v>
       </c>
       <c r="M126" s="1" t="s">
@@ -16559,7 +16501,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -16568,10 +16510,10 @@
       <c r="C127" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F127" s="1" t="n">
@@ -16580,10 +16522,10 @@
       <c r="G127" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H127" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L127" s="4" t="s">
+      <c r="L127" s="5" t="s">
         <v>102</v>
       </c>
       <c r="M127" s="1" t="s">
@@ -16591,19 +16533,19 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F128" s="1" t="n">
@@ -16612,7 +16554,7 @@
       <c r="G128" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H128" s="4" t="s">
+      <c r="H128" s="5" t="s">
         <v>288</v>
       </c>
       <c r="M128" s="1" t="s">
@@ -16620,10 +16562,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -16632,7 +16574,7 @@
       <c r="D129" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F129" s="1" t="n">
@@ -16641,7 +16583,7 @@
       <c r="G129" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H129" s="5" t="s">
         <v>288</v>
       </c>
       <c r="M129" s="1" t="s">
@@ -16649,19 +16591,19 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F130" s="1" t="n">
@@ -16670,10 +16612,10 @@
       <c r="G130" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H130" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L130" s="4" t="s">
+      <c r="L130" s="5" t="s">
         <v>291</v>
       </c>
       <c r="M130" s="1" t="s">
@@ -16681,19 +16623,19 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F131" s="1" t="n">
@@ -16702,7 +16644,7 @@
       <c r="G131" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H131" s="5" t="s">
         <v>293</v>
       </c>
       <c r="M131" s="1" t="s">
@@ -16710,19 +16652,19 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F132" s="1" t="n">
@@ -16731,7 +16673,7 @@
       <c r="G132" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H132" s="4" t="s">
+      <c r="H132" s="5" t="s">
         <v>295</v>
       </c>
       <c r="L132" s="1" t="s">
@@ -16742,16 +16684,16 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -16763,7 +16705,7 @@
       <c r="G133" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H133" s="4" t="s">
+      <c r="H133" s="5" t="s">
         <v>300</v>
       </c>
       <c r="L133" s="1" t="s">
@@ -16774,16 +16716,16 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -16795,7 +16737,7 @@
       <c r="G134" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H134" s="5" t="s">
         <v>304</v>
       </c>
       <c r="L134" s="1" t="s">
@@ -16806,16 +16748,16 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -16827,7 +16769,7 @@
       <c r="G135" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H135" s="5" t="s">
         <v>307</v>
       </c>
       <c r="L135" s="1" t="s">
@@ -16838,16 +16780,16 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -16859,7 +16801,7 @@
       <c r="G136" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="H136" s="5" t="s">
         <v>310</v>
       </c>
       <c r="L136" s="1" t="s">
@@ -16870,16 +16812,16 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -16891,7 +16833,7 @@
       <c r="G137" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H137" s="5" t="s">
         <v>313</v>
       </c>
       <c r="M137" s="1" t="s">
@@ -16899,16 +16841,16 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -16920,7 +16862,7 @@
       <c r="G138" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="H138" s="5" t="s">
         <v>316</v>
       </c>
       <c r="M138" s="1" t="s">
@@ -16928,19 +16870,19 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K139" s="5" t="s">
         <v>320</v>
       </c>
       <c r="L139" s="1" t="s">
@@ -16951,19 +16893,19 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" s="5" t="s">
         <v>324</v>
       </c>
       <c r="L140" s="1" t="s">
@@ -16974,19 +16916,19 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K141" s="4" t="s">
+      <c r="K141" s="5" t="s">
         <v>329</v>
       </c>
       <c r="L141" s="1" t="s">
@@ -16997,10 +16939,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -17009,7 +16951,7 @@
       <c r="D142" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K142" s="4" t="s">
+      <c r="K142" s="5" t="s">
         <v>329</v>
       </c>
       <c r="L142" s="1" t="s">
@@ -17020,19 +16962,19 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K143" s="5" t="s">
         <v>332</v>
       </c>
       <c r="L143" s="1" t="s">
@@ -17043,19 +16985,19 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K144" s="4" t="s">
+      <c r="K144" s="5" t="s">
         <v>336</v>
       </c>
       <c r="L144" s="1" t="s">
@@ -17066,19 +17008,19 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L145" s="1" t="s">
@@ -17089,19 +17031,19 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K146" s="5" t="s">
         <v>343</v>
       </c>
       <c r="M146" s="1" t="s">
@@ -17109,19 +17051,19 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K147" s="5" t="s">
         <v>346</v>
       </c>
       <c r="L147" s="1" t="s">
@@ -17132,19 +17074,19 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K148" s="4" t="s">
+      <c r="K148" s="5" t="s">
         <v>349</v>
       </c>
       <c r="M148" s="1" t="s">
@@ -17152,19 +17094,19 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="K149" s="5" t="s">
         <v>352</v>
       </c>
       <c r="L149" s="1" t="s">
@@ -17175,19 +17117,19 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K150" s="5" t="s">
         <v>356</v>
       </c>
       <c r="M150" s="1" t="s">
@@ -17198,16 +17140,16 @@
       <c r="A151" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="5" t="s">
         <v>359</v>
       </c>
       <c r="M151" s="1" t="s">
@@ -17215,19 +17157,19 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="5" t="s">
         <v>362</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K152" s="4" t="s">
+      <c r="K152" s="5" t="s">
         <v>363</v>
       </c>
       <c r="L152" s="1" t="s">
@@ -17238,19 +17180,19 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="5" t="s">
         <v>362</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K153" s="5" t="s">
         <v>366</v>
       </c>
       <c r="L153" s="1" t="s">
@@ -17261,19 +17203,19 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K154" s="4" t="s">
+      <c r="K154" s="5" t="s">
         <v>370</v>
       </c>
       <c r="L154" s="1" t="s">
@@ -17284,19 +17226,19 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K155" s="4" t="s">
+      <c r="K155" s="5" t="s">
         <v>373</v>
       </c>
       <c r="L155" s="1" t="s">
@@ -17307,19 +17249,19 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="K156" s="5" t="s">
         <v>376</v>
       </c>
       <c r="L156" s="1" t="s">
@@ -17330,19 +17272,19 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="K157" s="5" t="s">
         <v>379</v>
       </c>
       <c r="L157" s="1" t="s">
@@ -17353,19 +17295,19 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K158" s="4" t="s">
+      <c r="K158" s="5" t="s">
         <v>382</v>
       </c>
       <c r="L158" s="1" t="s">
@@ -17379,16 +17321,16 @@
       <c r="A159" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K159" s="5" t="s">
         <v>385</v>
       </c>
       <c r="L159" s="1" t="s">
@@ -17399,19 +17341,19 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K160" s="4" t="s">
+      <c r="K160" s="5" t="s">
         <v>389</v>
       </c>
       <c r="L160" s="1" t="s">
@@ -17422,19 +17364,19 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K161" s="5" t="s">
         <v>392</v>
       </c>
       <c r="L161" s="1" t="s">
@@ -17445,19 +17387,19 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K162" s="4" t="s">
+      <c r="K162" s="5" t="s">
         <v>395</v>
       </c>
       <c r="L162" s="1" t="s">
@@ -17471,16 +17413,16 @@
       <c r="A163" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="K163" s="5" t="s">
         <v>398</v>
       </c>
       <c r="L163" s="1" t="s">
@@ -17491,19 +17433,19 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="5" t="s">
         <v>388</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K164" s="4" t="s">
+      <c r="K164" s="5" t="s">
         <v>401</v>
       </c>
       <c r="L164" s="1" t="s">
@@ -17514,28 +17456,28 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="E165" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I165" s="4" t="s">
+      <c r="I165" s="5" t="s">
         <v>404</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L165" s="4" t="s">
+      <c r="L165" s="5" t="s">
         <v>184</v>
       </c>
       <c r="M165" s="1" t="s">
@@ -17549,19 +17491,19 @@
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I166" s="4" t="s">
+      <c r="I166" s="5" t="s">
         <v>407</v>
       </c>
       <c r="J166" s="1" t="s">
@@ -17578,19 +17520,19 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F167" s="1" t="n">
@@ -17599,10 +17541,10 @@
       <c r="G167" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="H167" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="L167" s="4" t="s">
+      <c r="L167" s="5" t="s">
         <v>411</v>
       </c>
       <c r="M167" s="1" t="s">
@@ -17613,19 +17555,19 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F168" s="1" t="n">
@@ -17634,10 +17576,10 @@
       <c r="G168" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="H168" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="L168" s="4" t="s">
+      <c r="L168" s="5" t="s">
         <v>148</v>
       </c>
       <c r="M168" s="1" t="s">
@@ -17648,10 +17590,10 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -17660,7 +17602,7 @@
       <c r="D169" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="E169" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F169" s="1" t="n">
@@ -17669,10 +17611,10 @@
       <c r="G169" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H169" s="6" t="s">
+      <c r="H169" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="L169" s="4" t="s">
+      <c r="L169" s="5" t="s">
         <v>417</v>
       </c>
       <c r="M169" s="1" t="s">
@@ -17683,31 +17625,31 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="E170" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F170" s="1" t="n">
         <v>150</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H170" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="L170" s="4" t="s">
+      <c r="L170" s="5" t="s">
         <v>419</v>
       </c>
       <c r="M170" s="1" t="s">
@@ -17718,7 +17660,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -17727,19 +17669,19 @@
       <c r="C171" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F171" s="1" t="n">
         <v>240</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H171" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" s="6" t="s">
         <v>421</v>
       </c>
       <c r="L171" s="1" t="s">
@@ -17756,16 +17698,16 @@
       <c r="A172" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F172" s="1" t="n">
@@ -17774,7 +17716,7 @@
       <c r="G172" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H172" s="6" t="s">
+      <c r="H172" s="7" t="s">
         <v>424</v>
       </c>
       <c r="M172" s="1" t="s">
@@ -17788,16 +17730,16 @@
       <c r="A173" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F173" s="1" t="n">
@@ -17806,10 +17748,10 @@
       <c r="G173" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H173" s="6" t="s">
+      <c r="H173" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="L173" s="4" t="s">
+      <c r="L173" s="5" t="s">
         <v>411</v>
       </c>
       <c r="M173" s="1" t="s">
@@ -17823,16 +17765,16 @@
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F174" s="1" t="n">
@@ -17841,10 +17783,10 @@
       <c r="G174" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H174" s="6" t="s">
+      <c r="H174" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="L174" s="4" t="s">
+      <c r="L174" s="5" t="s">
         <v>430</v>
       </c>
       <c r="M174" s="1" t="s">
@@ -17858,7 +17800,7 @@
       <c r="A175" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -17867,7 +17809,7 @@
       <c r="D175" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F175" s="1" t="n">
@@ -17876,10 +17818,10 @@
       <c r="G175" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H175" s="6" t="s">
+      <c r="H175" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="L175" s="4" t="s">
+      <c r="L175" s="5" t="s">
         <v>433</v>
       </c>
       <c r="M175" s="1" t="s">
@@ -17893,28 +17835,28 @@
       <c r="A176" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F176" s="1" t="n">
         <v>160</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H176" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H176" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="L176" s="4" t="s">
+      <c r="L176" s="5" t="s">
         <v>435</v>
       </c>
       <c r="M176" s="1" t="s">
@@ -17928,25 +17870,25 @@
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F177" s="1" t="n">
         <v>190</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H177" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H177" s="7" t="s">
         <v>437</v>
       </c>
       <c r="L177" s="1" t="s">
@@ -17960,19 +17902,19 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F178" s="1" t="n">
@@ -17981,7 +17923,7 @@
       <c r="G178" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H178" s="6" t="s">
+      <c r="H178" s="7" t="s">
         <v>439</v>
       </c>
       <c r="M178" s="1" t="s">
@@ -17995,25 +17937,25 @@
       <c r="A179" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="E179" s="5" t="s">
         <v>443</v>
       </c>
       <c r="F179" s="1" t="n">
         <v>130</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H179" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" s="8" t="s">
         <v>444</v>
       </c>
       <c r="L179" s="1" t="s">
@@ -18025,36 +17967,36 @@
       <c r="O179" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="P179" s="8" t="s">
+      <c r="P179" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="Q179" s="9" t="s">
+      <c r="Q179" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E180" s="10" t="s">
+      <c r="E180" s="9" t="s">
         <v>448</v>
       </c>
       <c r="F180" s="1" t="n">
         <v>150</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H180" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H180" s="7" t="s">
         <v>449</v>
       </c>
       <c r="M180" s="1" t="s">
@@ -18065,28 +18007,28 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E181" s="9" t="s">
         <v>448</v>
       </c>
       <c r="F181" s="1" t="n">
         <v>50</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H181" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H181" s="7" t="s">
         <v>453</v>
       </c>
       <c r="M181" s="1" t="s">
@@ -18097,19 +18039,19 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K182" s="4" t="s">
+      <c r="K182" s="5" t="s">
         <v>458</v>
       </c>
       <c r="L182" s="1" t="s">
@@ -18120,19 +18062,19 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D183" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K183" s="4" t="s">
+      <c r="K183" s="5" t="s">
         <v>461</v>
       </c>
       <c r="L183" s="1" t="s">
@@ -18143,10 +18085,10 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -18155,7 +18097,7 @@
       <c r="D184" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K184" s="4" t="s">
+      <c r="K184" s="5" t="s">
         <v>461</v>
       </c>
       <c r="L184" s="1" t="s">
@@ -18166,22 +18108,22 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K185" s="4" t="s">
+      <c r="K185" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="L185" s="4" t="s">
+      <c r="L185" s="5" t="s">
         <v>464</v>
       </c>
       <c r="M185" s="1" t="s">
@@ -18189,19 +18131,19 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K186" s="4" t="s">
+      <c r="K186" s="5" t="s">
         <v>467</v>
       </c>
       <c r="L186" s="1" t="s">
@@ -18212,19 +18154,19 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K187" s="4" t="s">
+      <c r="K187" s="5" t="s">
         <v>470</v>
       </c>
       <c r="L187" s="1" t="s">
@@ -18235,19 +18177,19 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K188" s="4" t="s">
+      <c r="K188" s="5" t="s">
         <v>472</v>
       </c>
       <c r="L188" s="1" t="s">
@@ -18258,19 +18200,19 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K189" s="4" t="s">
+      <c r="K189" s="5" t="s">
         <v>474</v>
       </c>
       <c r="L189" s="1" t="s">
@@ -18281,19 +18223,19 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="D190" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K190" s="4" t="s">
+      <c r="K190" s="5" t="s">
         <v>474</v>
       </c>
       <c r="L190" s="1" t="s">
@@ -18307,16 +18249,16 @@
       <c r="A191" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D191" s="4" t="s">
+      <c r="D191" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K191" s="4" t="s">
+      <c r="K191" s="5" t="s">
         <v>477</v>
       </c>
       <c r="L191" s="1" t="s">
@@ -18327,25 +18269,25 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="5" t="s">
         <v>481</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E192" s="4" t="s">
+      <c r="E192" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K192" s="4" t="s">
+      <c r="K192" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="L192" s="4" t="s">
+      <c r="L192" s="5" t="s">
         <v>484</v>
       </c>
       <c r="M192" s="1" t="s">
@@ -18353,25 +18295,25 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="5" t="s">
         <v>481</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E193" s="4" t="s">
+      <c r="E193" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K193" s="4" t="s">
+      <c r="K193" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="L193" s="4" t="s">
+      <c r="L193" s="5" t="s">
         <v>484</v>
       </c>
       <c r="M193" s="1" t="s">
@@ -18379,25 +18321,25 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="5" t="s">
         <v>481</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E194" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K194" s="4" t="s">
+      <c r="K194" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="L194" s="4" t="s">
+      <c r="L194" s="5" t="s">
         <v>484</v>
       </c>
       <c r="M194" s="1" t="s">
@@ -18405,25 +18347,25 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="5" t="s">
         <v>481</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E195" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K195" s="4" t="s">
+      <c r="K195" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="L195" s="4" t="s">
+      <c r="L195" s="5" t="s">
         <v>484</v>
       </c>
       <c r="M195" s="1" t="s">
@@ -18431,28 +18373,28 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E196" s="4" t="s">
+      <c r="E196" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I196" s="4" t="s">
+      <c r="I196" s="5" t="s">
         <v>495</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L196" s="4" t="s">
+      <c r="L196" s="5" t="s">
         <v>497</v>
       </c>
       <c r="M196" s="1" t="s">
@@ -18463,28 +18405,28 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="E197" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I197" s="4" t="s">
+      <c r="I197" s="5" t="s">
         <v>499</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="L197" s="4" t="s">
+      <c r="L197" s="5" t="s">
         <v>497</v>
       </c>
       <c r="M197" s="1" t="s">
@@ -18495,28 +18437,28 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E198" s="4" t="s">
+      <c r="E198" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I198" s="4" t="s">
+      <c r="I198" s="5" t="s">
         <v>502</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="L198" s="4" t="s">
+      <c r="L198" s="5" t="s">
         <v>497</v>
       </c>
       <c r="M198" s="1" t="s">
@@ -18527,28 +18469,28 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E199" s="4" t="s">
+      <c r="E199" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I199" s="4" t="s">
+      <c r="I199" s="5" t="s">
         <v>505</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L199" s="4" t="s">
+      <c r="L199" s="5" t="s">
         <v>497</v>
       </c>
       <c r="M199" s="1" t="s">
